--- a/test/templates/test-array.xlsx
+++ b/test/templates/test-array.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d\kant\GitHub\xlsx-template\test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641F4035-4BEC-4E8A-A64D-641D4B7304B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +36,10 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>${data[0]}</t>
+    <t>{data[0]}</t>
   </si>
   <si>
-    <t>${data[1].name}</t>
+    <t>{data[1].name}</t>
   </si>
 </sst>
 </file>
@@ -87,7 +88,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -133,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -279,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,7 +433,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
